--- a/biology/Biochimie/Acides_aminés_analogues_de_la_mycosporine/Acides_aminés_analogues_de_la_mycosporine.xlsx
+++ b/biology/Biochimie/Acides_aminés_analogues_de_la_mycosporine/Acides_aminés_analogues_de_la_mycosporine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acides_amin%C3%A9s_analogues_de_la_mycosporine</t>
+          <t>Acides_aminés_analogues_de_la_mycosporine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les acides aminés analogues de la mycosporine (ou acides aminés « mycosporine-like », de l'anglais mycosporine-like amino acid, connus aussi sous l'acronyme MAA) sont de petits métabolites secondaires produits par des organismes qui vivent dans des environnements généralement marins (cyanobactéries, microalgues, microchampignons). En 2007, il y en a vingt d'identifiés[1]. Ils sont généralement décrits comme « écran solaire microbien » en absorbant les ultra-violets, mais peuvent avoir des fonctions supplémentaires : molécules antioxydantes piégeant les radicaux d'oxygène toxiques ; composés induits après un stress ionique, thermique ou une dessication, accumulés en tant que solutés compatibles après le stress salin ; pigments accessoires (en) dans les complexes antennaires collecteurs de lumière (en) ; rôle de réservoir d'azote intracellulaire ou dans la reproduction fongique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les acides aminés analogues de la mycosporine (ou acides aminés « mycosporine-like », de l'anglais mycosporine-like amino acid, connus aussi sous l'acronyme MAA) sont de petits métabolites secondaires produits par des organismes qui vivent dans des environnements généralement marins (cyanobactéries, microalgues, microchampignons). En 2007, il y en a vingt d'identifiés. Ils sont généralement décrits comme « écran solaire microbien » en absorbant les ultra-violets, mais peuvent avoir des fonctions supplémentaires : molécules antioxydantes piégeant les radicaux d'oxygène toxiques ; composés induits après un stress ionique, thermique ou une dessication, accumulés en tant que solutés compatibles après le stress salin ; pigments accessoires (en) dans les complexes antennaires collecteurs de lumière (en) ; rôle de réservoir d'azote intracellulaire ou dans la reproduction fongique.
 </t>
         </is>
       </c>
